--- a/1_政策宣傳執情形/總整理/勞動部.xlsx
+++ b/1_政策宣傳執情形/總整理/勞動部.xlsx
@@ -777,43 +777,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" min="1" width="9.10"/>
-    <col max="2" min="2" width="9.10"/>
-    <col max="3" min="3" width="9.10"/>
-    <col max="4" min="4" width="9.10"/>
-    <col max="5" min="5" width="9.10"/>
-    <col max="6" min="6" width="9.10"/>
-    <col max="7" min="7" width="9.10"/>
-    <col max="8" min="8" width="9.10"/>
+    <col width="9.10" max="1" min="1"/>
+    <col width="9.10" max="2" min="2"/>
+    <col width="9.10" max="3" min="3"/>
+    <col width="9.10" max="4" min="4"/>
+    <col width="9.10" max="5" min="5"/>
+    <col width="9.10" max="6" min="6"/>
+    <col width="9.10" max="7" min="7"/>
+    <col width="9.10" max="8" min="8"/>
   </cols>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c s="1" t="s" r="A1">
+    <row r="1" spans="1:8">
+      <c t="s" s="1" r="A1">
         <v>34</v>
       </c>
-      <c s="1" t="s" r="B1">
+      <c t="s" s="1" r="B1">
         <v>54</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c t="s" s="1" r="C1">
         <v>67</v>
       </c>
-      <c s="1" t="s" r="D1">
+      <c t="s" s="1" r="D1">
         <v>64</v>
       </c>
-      <c s="1" t="s" r="E1">
+      <c t="s" s="1" r="E1">
         <v>77</v>
       </c>
-      <c s="1" t="s" r="F1">
+      <c t="s" s="1" r="F1">
         <v>49</v>
       </c>
-      <c s="1" t="s" r="G1">
+      <c t="s" s="1" r="G1">
         <v>74</v>
       </c>
-      <c s="1" t="s" r="H1">
+      <c t="s" s="1" r="H1">
         <v>37</v>
       </c>
     </row>
-    <row spans="1:8" r="2">
+    <row r="2" spans="1:8">
       <c t="s" r="A2">
         <v>8</v>
       </c>
@@ -839,7 +839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row spans="1:8" r="3">
+    <row r="3" spans="1:8">
       <c t="s" r="A3">
         <v>60</v>
       </c>
@@ -865,7 +865,7 @@
         <v>79</v>
       </c>
     </row>
-    <row spans="1:8" r="4">
+    <row r="4" spans="1:8">
       <c t="s" r="A4">
         <v>35</v>
       </c>
@@ -891,7 +891,7 @@
         <v>110</v>
       </c>
     </row>
-    <row spans="1:8" r="5">
+    <row r="5" spans="1:8">
       <c t="s" r="A5">
         <v>73</v>
       </c>
@@ -917,7 +917,7 @@
         <v>92</v>
       </c>
     </row>
-    <row spans="1:8" r="6">
+    <row r="6" spans="1:8">
       <c t="s" r="A6">
         <v>51</v>
       </c>
@@ -943,7 +943,7 @@
         <v>103</v>
       </c>
     </row>
-    <row spans="1:8" r="7">
+    <row r="7" spans="1:8">
       <c t="s" r="A7">
         <v>57</v>
       </c>
@@ -969,7 +969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row spans="1:8" r="8">
+    <row r="8" spans="1:8">
       <c t="s" r="A8">
         <v>61</v>
       </c>
@@ -995,7 +995,7 @@
         <v>87</v>
       </c>
     </row>
-    <row spans="1:8" r="9">
+    <row r="9" spans="1:8">
       <c t="s" r="A9">
         <v>53</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>99</v>
       </c>
     </row>
-    <row spans="1:8" r="10">
+    <row r="10" spans="1:8">
       <c t="s" r="A10">
         <v>40</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>108</v>
       </c>
     </row>
-    <row spans="1:8" r="11">
+    <row r="11" spans="1:8">
       <c t="s" r="A11">
         <v>40</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row spans="1:8" r="12">
+    <row r="12" spans="1:8">
       <c t="s" r="A12">
         <v>35</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>101</v>
       </c>
     </row>
-    <row spans="1:8" r="13">
+    <row r="13" spans="1:8">
       <c t="s" r="A13">
         <v>52</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row spans="1:8" r="14">
+    <row r="14" spans="1:8">
       <c t="s" r="A14">
         <v>51</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>109</v>
       </c>
     </row>
-    <row spans="1:8" r="15">
+    <row r="15" spans="1:8">
       <c t="s" r="A15">
         <v>73</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>98</v>
       </c>
     </row>
-    <row spans="1:8" r="16">
+    <row r="16" spans="1:8">
       <c t="s" r="A16">
         <v>57</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row spans="1:8" r="17">
+    <row r="17" spans="1:8">
       <c t="s" r="A17">
         <v>62</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>100</v>
       </c>
     </row>
-    <row spans="1:8" r="18">
+    <row r="18" spans="1:8">
       <c t="s" r="A18">
         <v>56</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row spans="1:8" r="19">
+    <row r="19" spans="1:8">
       <c t="s" r="A19">
         <v>33</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>91</v>
       </c>
     </row>
-    <row spans="1:8" r="20">
+    <row r="20" spans="1:8">
       <c t="s" r="A20">
         <v>33</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>93</v>
       </c>
     </row>
-    <row spans="1:8" r="21">
+    <row r="21" spans="1:8">
       <c t="s" r="A21">
         <v>39</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>97</v>
       </c>
     </row>
-    <row spans="1:8" r="22">
+    <row r="22" spans="1:8">
       <c t="s" r="A22">
         <v>75</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row spans="1:8" r="23">
+    <row r="23" spans="1:8">
       <c t="s" r="A23">
         <v>71</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>90</v>
       </c>
     </row>
-    <row spans="1:8" r="24">
+    <row r="24" spans="1:8">
       <c t="s" r="A24">
         <v>58</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>94</v>
       </c>
     </row>
-    <row spans="1:8" r="25">
+    <row r="25" spans="1:8">
       <c t="s" r="A25">
         <v>48</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>106</v>
       </c>
     </row>
-    <row spans="1:8" r="26">
+    <row r="26" spans="1:8">
       <c t="s" r="A26">
         <v>62</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>87</v>
       </c>
     </row>
-    <row spans="1:8" r="27">
+    <row r="27" spans="1:8">
       <c t="s" r="A27">
         <v>72</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>82</v>
       </c>
     </row>
-    <row spans="1:8" r="28">
+    <row r="28" spans="1:8">
       <c t="s" r="A28">
         <v>63</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>89</v>
       </c>
     </row>
-    <row spans="1:8" r="29">
+    <row r="29" spans="1:8">
       <c t="s" r="A29">
         <v>42</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row spans="1:8" r="30">
+    <row r="30" spans="1:8">
       <c t="s" r="A30">
         <v>46</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row spans="1:8" r="31">
+    <row r="31" spans="1:8">
       <c t="s" r="A31">
         <v>46</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>99</v>
       </c>
     </row>
-    <row spans="1:8" r="32">
+    <row r="32" spans="1:8">
       <c t="s" r="A32">
         <v>44</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>102</v>
       </c>
     </row>
-    <row spans="1:8" r="33">
+    <row r="33" spans="1:8">
       <c t="s" r="A33">
         <v>44</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>107</v>
       </c>
     </row>
-    <row spans="1:8" r="34">
+    <row r="34" spans="1:8">
       <c t="s" r="A34">
         <v>38</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>96</v>
       </c>
     </row>
-    <row spans="1:8" r="35">
+    <row r="35" spans="1:8">
       <c t="s" r="A35">
         <v>76</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>99</v>
       </c>
     </row>
-    <row spans="1:8" r="36">
+    <row r="36" spans="1:8">
       <c t="s" r="A36">
         <v>71</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row spans="1:8" r="37">
+    <row r="37" spans="1:8">
       <c t="s" r="A37">
         <v>58</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>95</v>
       </c>
     </row>
-    <row spans="1:8" r="38">
+    <row r="38" spans="1:8">
       <c t="s" r="A38">
         <v>48</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row spans="1:8" r="39">
+    <row r="39" spans="1:8">
       <c t="s" r="A39">
         <v>41</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>88</v>
       </c>
     </row>
-    <row spans="1:8" r="40">
+    <row r="40" spans="1:8">
       <c t="s" r="A40">
         <v>41</v>
       </c>
